--- a/gatsby-site/src/data/all-production.xlsx
+++ b/gatsby-site/src/data/all-production.xlsx
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:F3213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
